--- a/Reports/All.xlsx
+++ b/Reports/All.xlsx
@@ -1,35 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\Work\Study\Programming\Python\Python_labs_3.1\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enrollees" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Examiners" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exams" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Enrollees" sheetId="1" r:id="rId1"/>
+    <sheet name="Examiners" sheetId="2" r:id="rId2"/>
+    <sheet name="Exams" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+  <si>
+    <t>Pasechnuy</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Sergeevich</t>
+  </si>
+  <si>
+    <t>Pushkina 22</t>
+  </si>
+  <si>
+    <t>10.05.2001</t>
+  </si>
+  <si>
+    <t>DB123345</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Viktorovich</t>
+  </si>
+  <si>
+    <t>Pushkina 32</t>
+  </si>
+  <si>
+    <t>17.04.1997</t>
+  </si>
+  <si>
+    <t>BD54321</t>
+  </si>
+  <si>
+    <t>Bulkin</t>
+  </si>
+  <si>
+    <t>Alexandr</t>
+  </si>
+  <si>
+    <t>Pupkina 228</t>
+  </si>
+  <si>
+    <t>13.09.1997</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Kurkin</t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Adv. Python KN218.ge</t>
+  </si>
+  <si>
+    <t>27.10.2020 14:15</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Pasechnuy Alex Sergeevich</t>
+  </si>
+  <si>
+    <t>Kurkin Sergey Sergeevich</t>
+  </si>
+  <si>
+    <t>Test exam</t>
+  </si>
+  <si>
+    <t>27.10.2020 14:05</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>27.10.2020 10:15</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>28.10.2020 10:25</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +159,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,122 +463,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Pasechnuy</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Sergeevich</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Pushkina 22</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>10.05.2001</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>DB123345</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pasechnuy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ivan</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Viktorovich</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pushkina 32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17.04.1997</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>BD54321</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bulkin</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alexandr</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Viktorovich</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pupkina 228</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13.09.1997</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Passport</t>
-        </is>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -535,39 +545,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Kurkin</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sergey</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Sergeevich</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
         <v>1000</v>
       </c>
     </row>
@@ -577,112 +575,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Adv. Python KN218.ge</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>27.10.2020 14:15</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Test exam</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>27.10.2020 14:05</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FINISHED</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>27.10.2020 10:15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>28.10.2020 10:25</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Planned</t>
-        </is>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/All.xlsx
+++ b/Reports/All.xlsx
@@ -1,146 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\Work\Study\Programming\Python\Python_labs_3.1\Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Enrollees" sheetId="1" r:id="rId1"/>
-    <sheet name="Examiners" sheetId="2" r:id="rId2"/>
-    <sheet name="Exams" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enrollees" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Examiners" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exams" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
-  <si>
-    <t>Pasechnuy</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Sergeevich</t>
-  </si>
-  <si>
-    <t>Pushkina 22</t>
-  </si>
-  <si>
-    <t>10.05.2001</t>
-  </si>
-  <si>
-    <t>DB123345</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Viktorovich</t>
-  </si>
-  <si>
-    <t>Pushkina 32</t>
-  </si>
-  <si>
-    <t>17.04.1997</t>
-  </si>
-  <si>
-    <t>BD54321</t>
-  </si>
-  <si>
-    <t>Bulkin</t>
-  </si>
-  <si>
-    <t>Alexandr</t>
-  </si>
-  <si>
-    <t>Pupkina 228</t>
-  </si>
-  <si>
-    <t>13.09.1997</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Kurkin</t>
-  </si>
-  <si>
-    <t>Sergey</t>
-  </si>
-  <si>
-    <t>Adv. Python KN218.ge</t>
-  </si>
-  <si>
-    <t>27.10.2020 14:15</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Pasechnuy Alex Sergeevich</t>
-  </si>
-  <si>
-    <t>Kurkin Sergey Sergeevich</t>
-  </si>
-  <si>
-    <t>Test exam</t>
-  </si>
-  <si>
-    <t>27.10.2020 14:05</t>
-  </si>
-  <si>
-    <t>FINISHED</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>27.10.2020 10:15</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>28.10.2020 10:25</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,80 +411,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Pasechnuy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Sergeevich</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Pushkina 22</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>10.05.2001</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DB123345</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pasechnuy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Viktorovich</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pushkina 32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17.04.1997</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BD54321</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bulkin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Alexandr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Viktorovich</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pupkina 228</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.09.1997</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Passport</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -545,27 +535,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Kurkin</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sergey</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Sergeevich</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -575,108 +577,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col width="16.7109375" customWidth="1" min="3" max="3"/>
+    <col width="10.42578125" customWidth="1" min="4" max="4"/>
+    <col width="27.42578125" customWidth="1" min="6" max="6"/>
+    <col width="28.28515625" customWidth="1" min="7" max="7"/>
+    <col width="9.140625" customWidth="1" min="8" max="8"/>
+    <col width="24.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Adv. Python KN218.ge</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>27.10.2020 14:15</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Pasechnuy Alex Sergeevich</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Kurkin Sergey Sergeevich</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test exam</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27.10.2020 14:05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pasechnuy Alex Sergeevich</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Kurkin Sergey Sergeevich</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27.10.2020 10:15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pasechnuy Alex Sergeevich</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Kurkin Sergey Sergeevich</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>28.10.2020 10:25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pasechnuy Alex Sergeevich</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Kurkin Sergey Sergeevich</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Reports/All.xlsx
+++ b/Reports/All.xlsx
@@ -416,13 +416,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.5703125" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -496,36 +499,71 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulkin</t>
+          <t>Pupkin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alexandr</t>
+          <t>Vasiliy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viktorovich</t>
+          <t>Petrovich</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pupkina 228</t>
+          <t>Sumskaya 25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.09.1997</t>
+          <t>30.07.1996</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Passport</t>
+          <t>ID19731682</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rew</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rew</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rwe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>rwe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>01/01/2000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>rew</t>
         </is>
       </c>
     </row>
@@ -540,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +607,29 @@
       </c>
       <c r="E1" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,12 +651,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.7109375" customWidth="1" min="3" max="3"/>
-    <col width="10.42578125" customWidth="1" min="4" max="4"/>
-    <col width="27.42578125" customWidth="1" min="6" max="6"/>
-    <col width="28.28515625" customWidth="1" min="7" max="7"/>
-    <col width="9.140625" customWidth="1" min="8" max="8"/>
-    <col width="24.28515625" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="11.85546875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -609,7 +666,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>27.10.2020 14:15</t>
+          <t>15.12.2020 21:38</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -670,26 +727,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>qt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27.10.2020 10:15</t>
+          <t>01.01.2000 00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -698,36 +755,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Kurkin Sergey Sergeevich</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>28.10.2020 10:25</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Planned</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pasechnuy Alex Sergeevich</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>Kurkin Sergey Sergeevich</t>
         </is>
